--- a/biology/Botanique/Parc_Saint-Pierre_(Amiens)/Parc_Saint-Pierre_(Amiens).xlsx
+++ b/biology/Botanique/Parc_Saint-Pierre_(Amiens)/Parc_Saint-Pierre_(Amiens).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Saint-Pierre est un parc public d'Amiens, en France.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'est substitué à l'espace semi-sauvage autour de l'étang de Saint-Pierre, jadis paradis des pêcheurs et des campeurs. 
 Conçu en 1993 par la paysagiste Jacqueline Osty, c'est un espace vert de 22 ha, en bordure du canal de la Somme, à proximité du quartier Saint-Leu, du faubourg Saint-Pierre et des hortillonnages. 
@@ -546,7 +560,9 @@
           <t>Aménagements paysagers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le parc a obtenu en 1994 le prix de l'aménagement urbain catégorie Parcs et jardins.
 L'espace est organisé autour de la « Promenade des jours », longue de 620 mètres, il est divisé en plusieurs jardins : 
@@ -588,17 +604,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Arbres remarquables
-alnus glutinosa (aulne glutineux),
+          <t>Arbres remarquables</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>alnus glutinosa (aulne glutineux),
 nothofagus betuloides (hêtre de Magellan),
 ginkgo biloba, (arbre aux quarante écus)
 prunus avium (cerisier et merisier des oiseaux),
 populus simonii, (peuplier de Simon)
 populus tremula (tremble),
 prunus padus (cerisier ou merisier à grappes),
-taxodium distichum (cyprès chauve ou cyprès de Louisiane)...
-Arbres d'alignement
-platanus aceriforia (platane commun),
+taxodium distichum (cyprès chauve ou cyprès de Louisiane)...</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_Saint-Pierre_(Amiens)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Saint-Pierre_(Amiens)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces végétales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbres d'alignement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>platanus aceriforia (platane commun),
 Sorbus aucuparia (sorbier des oiseleurs)...
 Arbres fruitiers,
 Arbustes,
@@ -606,33 +661,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Parc_Saint-Pierre_(Amiens)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_Saint-Pierre_(Amiens)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Événements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Minuit avant la Nuit, festival de musique qui se tient au mois de juin[1].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Minuit avant la Nuit, festival de musique qui se tient au mois de juin.</t>
         </is>
       </c>
     </row>
